--- a/AynalizeCodeApp/API.xlsx
+++ b/AynalizeCodeApp/API.xlsx
@@ -7,15 +7,17 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="create" sheetId="1" r:id="rId1"/>
-    <sheet name="get" sheetId="2" r:id="rId2"/>
+    <sheet name="content" sheetId="4" r:id="rId1"/>
+    <sheet name="create" sheetId="1" r:id="rId2"/>
+    <sheet name="get" sheetId="2" r:id="rId3"/>
+    <sheet name="constructor" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>1.success</t>
   </si>
@@ -28,12 +30,21 @@
   <si>
     <t>2.success - read error</t>
   </si>
+  <si>
+    <t>1.Create Database Used API</t>
+  </si>
+  <si>
+    <t>3.Constructor for API response data and Database record</t>
+  </si>
+  <si>
+    <t>2.Get function detail Used API</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,6 +56,29 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -67,14 +101,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1100,6 +1140,343 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="304799"/>
+          <a:ext cx="3181350" cy="3648075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>[</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>        {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>               'fileName': '',  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>               'funcDetail': [</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>                     {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>                         'name' : '',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                         'params' : '',</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                         'body' : '',</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                         'line' : '',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'fileName': '',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                         },</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                         ...</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>               ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>        },</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>        ...</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>]</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1395,11 +1772,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:X9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="83" width="3.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+    </row>
+    <row r="3" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+    </row>
+    <row r="4" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+    </row>
+    <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+    </row>
+    <row r="7" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+    </row>
+    <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+    </row>
+    <row r="9" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C5:X5"/>
+    <mergeCell ref="C4:N4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C3" location="create!A1" display="1.Create Database Used API"/>
+    <hyperlink ref="C4" location="get!A1" display="2.Get function detail"/>
+    <hyperlink ref="C5" location="constructor!A1" display="3.Constructor for API response data and Database record"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BF11" sqref="BF11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1428,12 +2023,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B60"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="BE81" sqref="BE81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O90" sqref="O90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,4 +2055,22 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="97" width="3.42578125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>